--- a/datos/partidos_jugados.xlsx
+++ b/datos/partidos_jugados.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p1jav\OneDrive\Documents\GitHub\proyecto2_datos\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CE0ECB-FB47-40FF-921C-C4171083A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A6A6E4-4844-4D90-959D-5E2AB148AE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE8D36E9-6548-42ED-8B8B-25A377293B30}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="duracion" sheetId="5" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1771,54 +1772,6 @@
   <dxfs count="11">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2081,17 +2034,65 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-      </border>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2123,25 +2124,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00FE726A-0C67-4E30-87E7-C37BC3B6091B}" name="Tabla2" displayName="Tabla2" ref="A1:G66" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00FE726A-0C67-4E30-87E7-C37BC3B6091B}" name="Tabla2" displayName="Tabla2" ref="A1:G66" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="A1:G66" xr:uid="{00FE726A-0C67-4E30-87E7-C37BC3B6091B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G66">
     <sortCondition ref="A1:A66"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{30B5F050-C2CA-4367-B0EE-201969D957DE}" name="Columna1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8C584D03-F8BB-4CCF-98F6-441646A9172E}" name="Columna2" dataDxfId="7" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="3" xr3:uid="{DD5A136C-186A-4AFF-8DCC-906A0B7151F1}" name="Columna3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{9904ED30-7B60-4FEE-96A9-559F43D6CB6F}" name="Columna4" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{30B5F050-C2CA-4367-B0EE-201969D957DE}" name="Columna1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8C584D03-F8BB-4CCF-98F6-441646A9172E}" name="Columna2" dataDxfId="5" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="3" xr3:uid="{DD5A136C-186A-4AFF-8DCC-906A0B7151F1}" name="Columna3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9904ED30-7B60-4FEE-96A9-559F43D6CB6F}" name="Columna4" dataDxfId="3">
       <calculatedColumnFormula>MID(B2,1,FIND("(",B2,1)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B66FEAE5-35F0-4240-BDD4-C57153AAA6B5}" name="Columna5" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{B66FEAE5-35F0-4240-BDD4-C57153AAA6B5}" name="Columna5" dataDxfId="2">
       <calculatedColumnFormula>MID(B2,FIND("(",B2,1)+1,FIND(")",B2,1)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{28C5F8F0-87BA-4EE5-9E07-0BC2A9B684BF}" name="Columna6" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{28C5F8F0-87BA-4EE5-9E07-0BC2A9B684BF}" name="Columna6" dataDxfId="1">
       <calculatedColumnFormula>MID(E2,1,FIND(")",E2,1)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{71918003-D2B0-41FE-97DB-72EA96745F7F}" name="Columna7" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{71918003-D2B0-41FE-97DB-72EA96745F7F}" name="Columna7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2444,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA1337C7-043D-452C-81A7-CBDA3532B65A}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F1" sqref="F1:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2455,7 +2456,7 @@
     <col min="1" max="1" width="25.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>43265.75</v>
       </c>
@@ -2472,16 +2473,19 @@
         <v>5643081</v>
       </c>
       <c r="F1">
+        <v>95</v>
+      </c>
+      <c r="G1">
         <v>1</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>70</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43266.625</v>
       </c>
@@ -2498,16 +2502,19 @@
         <v>6928626</v>
       </c>
       <c r="F2">
+        <v>97</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>85</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43266.75</v>
       </c>
@@ -2524,16 +2531,19 @@
         <v>5898749</v>
       </c>
       <c r="F3">
+        <v>97</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>81</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43266.875</v>
       </c>
@@ -2550,16 +2560,19 @@
         <v>7341410</v>
       </c>
       <c r="F4">
+        <v>96</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>93</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43267.541666666701</v>
       </c>
@@ -2576,16 +2589,19 @@
         <v>7627503</v>
       </c>
       <c r="F5">
+        <v>96</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>68</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43267.666666666701</v>
       </c>
@@ -2602,16 +2618,19 @@
         <v>8084900</v>
       </c>
       <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>87</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43267.791666666701</v>
       </c>
@@ -2628,16 +2647,19 @@
         <v>9573128</v>
       </c>
       <c r="F7">
+        <v>96</v>
+      </c>
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>49</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43267.916666666701</v>
       </c>
@@ -2654,16 +2676,19 @@
         <v>6542559</v>
       </c>
       <c r="F8">
+        <v>95</v>
+      </c>
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>72</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43268.625</v>
       </c>
@@ -2680,16 +2705,19 @@
         <v>1777498</v>
       </c>
       <c r="F9">
+        <v>98</v>
+      </c>
+      <c r="G9">
         <v>9</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>47</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43268.75</v>
       </c>
@@ -2706,16 +2734,19 @@
         <v>4072059</v>
       </c>
       <c r="F10">
+        <v>94</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>36</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43268.875</v>
       </c>
@@ -2732,16 +2763,19 @@
         <v>4391333</v>
       </c>
       <c r="F11">
+        <v>97</v>
+      </c>
+      <c r="G11">
         <v>11</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>61</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43269.625</v>
       </c>
@@ -2758,16 +2792,19 @@
         <v>4125806</v>
       </c>
       <c r="F12">
+        <v>95</v>
+      </c>
+      <c r="G12">
         <v>12</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>55</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43269.75</v>
       </c>
@@ -2784,16 +2821,19 @@
         <v>6493552</v>
       </c>
       <c r="F13">
+        <v>95</v>
+      </c>
+      <c r="G13">
         <v>13</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>53</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43269.875</v>
       </c>
@@ -2810,16 +2850,19 @@
         <v>3228322</v>
       </c>
       <c r="F14">
+        <v>95</v>
+      </c>
+      <c r="G14">
         <v>14</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>74</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43270.625</v>
       </c>
@@ -2836,16 +2879,19 @@
         <v>7040699</v>
       </c>
       <c r="F15">
+        <v>96</v>
+      </c>
+      <c r="G15">
         <v>15</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>95</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43270.75</v>
       </c>
@@ -2862,16 +2908,19 @@
         <v>3849537</v>
       </c>
       <c r="F16">
+        <v>95</v>
+      </c>
+      <c r="G16">
         <v>16</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>44</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43270.875</v>
       </c>
@@ -2888,16 +2937,19 @@
         <v>6842993</v>
       </c>
       <c r="F17">
+        <v>95</v>
+      </c>
+      <c r="G17">
         <v>17</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>66</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43271.625</v>
       </c>
@@ -2914,16 +2966,19 @@
         <v>6961614</v>
       </c>
       <c r="F18">
+        <v>96</v>
+      </c>
+      <c r="G18">
         <v>18</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>97</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43271.75</v>
       </c>
@@ -2940,16 +2995,19 @@
         <v>4197539</v>
       </c>
       <c r="F19">
+        <v>95</v>
+      </c>
+      <c r="G19">
         <v>19</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>97</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43271.875</v>
       </c>
@@ -2966,16 +3024,19 @@
         <v>1101234</v>
       </c>
       <c r="F20">
+        <v>95</v>
+      </c>
+      <c r="G20">
         <v>20</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>68</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43272.625</v>
       </c>
@@ -2992,16 +3053,19 @@
         <v>3249889</v>
       </c>
       <c r="F21">
+        <v>94</v>
+      </c>
+      <c r="G21">
         <v>21</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>89</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43272.75</v>
       </c>
@@ -3018,16 +3082,19 @@
         <v>8523705</v>
       </c>
       <c r="F22">
+        <v>95</v>
+      </c>
+      <c r="G22">
         <v>22</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>40</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43272.875</v>
       </c>
@@ -3044,16 +3111,19 @@
         <v>4749641</v>
       </c>
       <c r="F23">
+        <v>95</v>
+      </c>
+      <c r="G23">
         <v>23</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>38</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43273.625</v>
       </c>
@@ -3070,16 +3140,19 @@
         <v>1285741</v>
       </c>
       <c r="F24">
+        <v>99</v>
+      </c>
+      <c r="G24">
         <v>24</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>85</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43273.75</v>
       </c>
@@ -3096,16 +3169,19 @@
         <v>6649974</v>
       </c>
       <c r="F25">
+        <v>97</v>
+      </c>
+      <c r="G25">
         <v>25</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>76</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43273.875</v>
       </c>
@@ -3122,16 +3198,19 @@
         <v>4951339</v>
       </c>
       <c r="F26">
+        <v>96</v>
+      </c>
+      <c r="G26">
         <v>26</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>79</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43274.625</v>
       </c>
@@ -3148,16 +3227,19 @@
         <v>9067039</v>
       </c>
       <c r="F27">
+        <v>94</v>
+      </c>
+      <c r="G27">
         <v>27</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>59</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43274.75</v>
       </c>
@@ -3174,16 +3256,19 @@
         <v>9686797</v>
       </c>
       <c r="F28">
+        <v>96</v>
+      </c>
+      <c r="G28">
         <v>28</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>91</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43274.875</v>
       </c>
@@ -3200,16 +3285,19 @@
         <v>1714216</v>
       </c>
       <c r="F29">
+        <v>98</v>
+      </c>
+      <c r="G29">
         <v>29</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>87</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43275.625</v>
       </c>
@@ -3226,16 +3314,19 @@
         <v>9125159</v>
       </c>
       <c r="F30">
+        <v>95</v>
+      </c>
+      <c r="G30">
         <v>30</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>51</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43275.75</v>
       </c>
@@ -3252,16 +3343,19 @@
         <v>8111625</v>
       </c>
       <c r="F31">
+        <v>95</v>
+      </c>
+      <c r="G31">
         <v>31</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>93</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43275.875</v>
       </c>
@@ -3278,16 +3372,19 @@
         <v>9233880</v>
       </c>
       <c r="F32">
+        <v>96</v>
+      </c>
+      <c r="G32">
         <v>32</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>61</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43276.708333333299</v>
       </c>
@@ -3304,16 +3401,19 @@
         <v>5352950</v>
       </c>
       <c r="F33">
+        <v>95</v>
+      </c>
+      <c r="G33">
         <v>33</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>47</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43276.708333333299</v>
       </c>
@@ -3330,16 +3430,19 @@
         <v>8405286</v>
       </c>
       <c r="F34">
+        <v>96</v>
+      </c>
+      <c r="G34">
         <v>34</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>74</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43276.875</v>
       </c>
@@ -3356,16 +3459,19 @@
         <v>9391710</v>
       </c>
       <c r="F35">
+        <v>98</v>
+      </c>
+      <c r="G35">
         <v>35</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>66</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43276.875</v>
       </c>
@@ -3382,16 +3488,19 @@
         <v>3245710</v>
       </c>
       <c r="F36">
+        <v>97</v>
+      </c>
+      <c r="G36">
         <v>36</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>38</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43277.708333333299</v>
       </c>
@@ -3408,16 +3517,19 @@
         <v>5785615</v>
       </c>
       <c r="F37">
+        <v>94</v>
+      </c>
+      <c r="G37">
         <v>37</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>72</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43277.708333333299</v>
       </c>
@@ -3434,16 +3546,19 @@
         <v>6370107</v>
       </c>
       <c r="F38">
+        <v>95</v>
+      </c>
+      <c r="G38">
         <v>38</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>83</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43277.875</v>
       </c>
@@ -3460,16 +3575,19 @@
         <v>8334347</v>
       </c>
       <c r="F39">
+        <v>95</v>
+      </c>
+      <c r="G39">
         <v>39</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>81</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43277.875</v>
       </c>
@@ -3486,16 +3604,19 @@
         <v>8435599</v>
       </c>
       <c r="F40">
+        <v>95</v>
+      </c>
+      <c r="G40">
         <v>40</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>89</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43278.708333333299</v>
       </c>
@@ -3512,16 +3633,19 @@
         <v>4161050</v>
       </c>
       <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41">
         <v>41</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>70</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43278.708333333299</v>
       </c>
@@ -3538,16 +3662,19 @@
         <v>8208086</v>
       </c>
       <c r="F42">
+        <v>95</v>
+      </c>
+      <c r="G42">
         <v>42</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>57</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43278.875</v>
       </c>
@@ -3564,16 +3691,19 @@
         <v>9060321</v>
       </c>
       <c r="F43">
+        <v>94</v>
+      </c>
+      <c r="G43">
         <v>43</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>36</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43278.875</v>
       </c>
@@ -3590,16 +3720,19 @@
         <v>3823910</v>
       </c>
       <c r="F44">
+        <v>96</v>
+      </c>
+      <c r="G44">
         <v>44</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>97</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43279.708333333299</v>
       </c>
@@ -3616,16 +3749,19 @@
         <v>9654836</v>
       </c>
       <c r="F45">
+        <v>94</v>
+      </c>
+      <c r="G45">
         <v>45</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>53</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43279.708333333299</v>
       </c>
@@ -3642,16 +3778,19 @@
         <v>5605485</v>
       </c>
       <c r="F46">
+        <v>95</v>
+      </c>
+      <c r="G46">
         <v>46</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>91</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43279.875</v>
       </c>
@@ -3668,16 +3807,19 @@
         <v>7612921</v>
       </c>
       <c r="F47">
+        <v>94</v>
+      </c>
+      <c r="G47">
         <v>47</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>44</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43279.875</v>
       </c>
@@ -3694,12 +3836,15 @@
         <v>2241281</v>
       </c>
       <c r="F48">
+        <v>98</v>
+      </c>
+      <c r="G48">
         <v>48</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>95</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>96</v>
       </c>
     </row>
@@ -3710,6 +3855,261 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEACCB8B-8D97-4537-AC30-D354855BCD36}">
+  <dimension ref="A1:A48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection sqref="A1:A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEDC9C4-1866-49B6-8F9C-7F39056F920B}">
   <dimension ref="A1:G66"/>
   <sheetViews>
@@ -3753,15 +4153,15 @@
         <v>17</v>
       </c>
       <c r="D2" t="str">
-        <f>MID(B2,1,FIND("(",B2,1)-1)</f>
+        <f t="shared" ref="D2:D33" si="0">MID(B2,1,FIND("(",B2,1)-1)</f>
         <v xml:space="preserve">Reza Sokhandan </v>
       </c>
       <c r="E2" t="str">
-        <f>MID(B2,FIND("(",B2,1)+1,FIND(")",B2,1)-1)</f>
+        <f t="shared" ref="E2:E33" si="1">MID(B2,FIND("(",B2,1)+1,FIND(")",B2,1)-1)</f>
         <v>Iran)</v>
       </c>
       <c r="F2" t="str">
-        <f>MID(E2,1,FIND(")",E2,1)-1)</f>
+        <f t="shared" ref="F2:F33" si="2">MID(E2,1,FIND(")",E2,1)-1)</f>
         <v>Iran</v>
       </c>
       <c r="G2">
@@ -3774,15 +4174,15 @@
         <v>18</v>
       </c>
       <c r="D3" t="str">
-        <f>MID(B3,1,FIND("(",B3,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Mohammadreza Mansouri </v>
       </c>
       <c r="E3" t="str">
-        <f>MID(B3,FIND("(",B3,1)+1,FIND(")",B3,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Iran)</v>
       </c>
       <c r="F3" t="str">
-        <f>MID(E3,1,FIND(")",E3,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Iran</v>
       </c>
       <c r="G3">
@@ -3797,15 +4197,15 @@
         <v>20</v>
       </c>
       <c r="D4" t="str">
-        <f>MID(B4,1,FIND("(",B4,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>Abdukhamidullo Rasulov </v>
       </c>
       <c r="E4" t="str">
-        <f>MID(B4,FIND("(",B4,1)+1,FIND(")",B4,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Uzbekistan)</v>
       </c>
       <c r="F4" t="str">
-        <f>MID(E4,1,FIND(")",E4,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Uzbekistan</v>
       </c>
       <c r="G4">
@@ -3818,15 +4218,15 @@
         <v>21</v>
       </c>
       <c r="D5" t="str">
-        <f>MID(B5,1,FIND("(",B5,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Jakhongir Saidov </v>
       </c>
       <c r="E5" t="str">
-        <f>MID(B5,FIND("(",B5,1)+1,FIND(")",B5,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Uzbekistan)</v>
       </c>
       <c r="F5" t="str">
-        <f>MID(E5,1,FIND(")",E5,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Uzbekistan</v>
       </c>
       <c r="G5">
@@ -3841,15 +4241,15 @@
         <v>23</v>
       </c>
       <c r="D6" t="str">
-        <f>MID(B6,1,FIND("(",B6,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Mohamed Al Hammadi </v>
       </c>
       <c r="E6" t="str">
-        <f>MID(B6,FIND("(",B6,1)+1,FIND(")",B6,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>United Arab Emirates)</v>
       </c>
       <c r="F6" t="str">
-        <f>MID(E6,1,FIND(")",E6,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="G6">
@@ -3862,15 +4262,15 @@
         <v>24</v>
       </c>
       <c r="D7" t="str">
-        <f>MID(B7,1,FIND("(",B7,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Hasan Al Mahri </v>
       </c>
       <c r="E7" t="str">
-        <f>MID(B7,FIND("(",B7,1)+1,FIND(")",B7,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>United Arab Emirates)</v>
       </c>
       <c r="F7" t="str">
-        <f>MID(E7,1,FIND(")",E7,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="G7">
@@ -3885,15 +4285,15 @@
         <v>26</v>
       </c>
       <c r="D8" t="str">
-        <f>MID(B8,1,FIND("(",B8,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Toru Sagara </v>
       </c>
       <c r="E8" t="str">
-        <f>MID(B8,FIND("(",B8,1)+1,FIND(")",B8,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Japan)</v>
       </c>
       <c r="F8" t="str">
-        <f>MID(E8,1,FIND(")",E8,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Japan</v>
       </c>
       <c r="G8">
@@ -3906,15 +4306,15 @@
         <v>27</v>
       </c>
       <c r="D9" t="str">
-        <f>MID(B9,1,FIND("(",B9,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Hiroshi Yamauchi </v>
       </c>
       <c r="E9" t="str">
-        <f>MID(B9,FIND("(",B9,1)+1,FIND(")",B9,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Japan)</v>
       </c>
       <c r="F9" t="str">
-        <f>MID(E9,1,FIND(")",E9,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Japan</v>
       </c>
       <c r="G9">
@@ -3929,15 +4329,15 @@
         <v>29</v>
       </c>
       <c r="D10" t="str">
-        <f>MID(B10,1,FIND("(",B10,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Yaser Tulefat </v>
       </c>
       <c r="E10" t="str">
-        <f>MID(B10,FIND("(",B10,1)+1,FIND(")",B10,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Bahrain)</v>
       </c>
       <c r="F10" t="str">
-        <f>MID(E10,1,FIND(")",E10,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Bahrain</v>
       </c>
       <c r="G10">
@@ -3950,15 +4350,15 @@
         <v>30</v>
       </c>
       <c r="D11" t="str">
-        <f>MID(B11,1,FIND("(",B11,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Taleb Al Maari </v>
       </c>
       <c r="E11" t="str">
-        <f>MID(B11,FIND("(",B11,1)+1,FIND(")",B11,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Qatar)</v>
       </c>
       <c r="F11" t="str">
-        <f>MID(E11,1,FIND(")",E11,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Qatar</v>
       </c>
       <c r="G11">
@@ -3973,15 +4373,15 @@
         <v>32</v>
       </c>
       <c r="D12" t="str">
-        <f>MID(B12,1,FIND("(",B12,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Anouar Hmila </v>
       </c>
       <c r="E12" t="str">
-        <f>MID(B12,FIND("(",B12,1)+1,FIND(")",B12,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Tunisia)</v>
       </c>
       <c r="F12" t="str">
-        <f>MID(E12,1,FIND(")",E12,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Tunisia</v>
       </c>
       <c r="G12">
@@ -3996,15 +4396,15 @@
         <v>34</v>
       </c>
       <c r="D13" t="str">
-        <f>MID(B13,1,FIND("(",B13,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Djibril Camara </v>
       </c>
       <c r="E13" t="str">
-        <f>MID(B13,FIND("(",B13,1)+1,FIND(")",B13,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Senegal)</v>
       </c>
       <c r="F13" t="str">
-        <f>MID(E13,1,FIND(")",E13,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Senegal</v>
       </c>
       <c r="G13">
@@ -4017,15 +4417,15 @@
         <v>35</v>
       </c>
       <c r="D14" t="str">
-        <f>MID(B14,1,FIND("(",B14,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">El Hadji Samba </v>
       </c>
       <c r="E14" t="str">
-        <f>MID(B14,FIND("(",B14,1)+1,FIND(")",B14,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Senegal)</v>
       </c>
       <c r="F14" t="str">
-        <f>MID(E14,1,FIND(")",E14,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Senegal</v>
       </c>
       <c r="G14">
@@ -4040,15 +4440,15 @@
         <v>37</v>
       </c>
       <c r="D15" t="str">
-        <f>MID(B15,1,FIND("(",B15,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Jean Claude Birumushahu </v>
       </c>
       <c r="E15" t="str">
-        <f>MID(B15,FIND("(",B15,1)+1,FIND(")",B15,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Burundi)</v>
       </c>
       <c r="F15" t="str">
-        <f>MID(E15,1,FIND(")",E15,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Burundi</v>
       </c>
       <c r="G15">
@@ -4061,15 +4461,15 @@
         <v>38</v>
       </c>
       <c r="D16" t="str">
-        <f>MID(B16,1,FIND("(",B16,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Abdelhak Etchiali </v>
       </c>
       <c r="E16" t="str">
-        <f>MID(B16,FIND("(",B16,1)+1,FIND(")",B16,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Algeria)</v>
       </c>
       <c r="F16" t="str">
-        <f>MID(E16,1,FIND(")",E16,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Algeria</v>
       </c>
       <c r="G16">
@@ -4084,15 +4484,15 @@
         <v>40</v>
       </c>
       <c r="D17" t="str">
-        <f>MID(B17,1,FIND("(",B17,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Redouane Achik </v>
       </c>
       <c r="E17" t="str">
-        <f>MID(B17,FIND("(",B17,1)+1,FIND(")",B17,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Morocco)</v>
       </c>
       <c r="F17" t="str">
-        <f>MID(E17,1,FIND(")",E17,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Morocco</v>
       </c>
       <c r="G17">
@@ -4105,15 +4505,15 @@
         <v>41</v>
       </c>
       <c r="D18" t="str">
-        <f>MID(B18,1,FIND("(",B18,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Waleed Ahmed </v>
       </c>
       <c r="E18" t="str">
-        <f>MID(B18,FIND("(",B18,1)+1,FIND(")",B18,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Sudan)</v>
       </c>
       <c r="F18" t="str">
-        <f>MID(E18,1,FIND(")",E18,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Sudan</v>
       </c>
       <c r="G18">
@@ -4128,15 +4528,15 @@
         <v>43</v>
       </c>
       <c r="D19" t="str">
-        <f>MID(B19,1,FIND("(",B19,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Jerson Dos Santos </v>
       </c>
       <c r="E19" t="str">
-        <f>MID(B19,FIND("(",B19,1)+1,FIND(")",B19,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Angola)</v>
       </c>
       <c r="F19" t="str">
-        <f>MID(E19,1,FIND(")",E19,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Angola</v>
       </c>
       <c r="G19">
@@ -4149,15 +4549,15 @@
         <v>44</v>
       </c>
       <c r="D20" t="str">
-        <f>MID(B20,1,FIND("(",B20,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Zakhele Siwela </v>
       </c>
       <c r="E20" t="str">
-        <f>MID(B20,FIND("(",B20,1)+1,FIND(")",B20,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>South Africa)</v>
       </c>
       <c r="F20" t="str">
-        <f>MID(E20,1,FIND(")",E20,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>South Africa</v>
       </c>
       <c r="G20">
@@ -4170,15 +4570,15 @@
       </c>
       <c r="B21" s="6"/>
       <c r="D21" t="e">
-        <f>MID(B21,1,FIND("(",B21,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E21" t="e">
-        <f>MID(B21,FIND("(",B21,1)+1,FIND(")",B21,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F21" t="e">
-        <f>MID(E21,1,FIND(")",E21,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4190,15 +4590,15 @@
         <v>47</v>
       </c>
       <c r="D22" t="str">
-        <f>MID(B22,1,FIND("(",B22,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Juan Zumba </v>
       </c>
       <c r="E22" t="str">
-        <f>MID(B22,FIND("(",B22,1)+1,FIND(")",B22,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>El Salvador)</v>
       </c>
       <c r="F22" t="str">
-        <f>MID(E22,1,FIND(")",E22,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>El Salvador</v>
       </c>
       <c r="G22">
@@ -4211,15 +4611,15 @@
         <v>48</v>
       </c>
       <c r="D23" t="str">
-        <f>MID(B23,1,FIND("(",B23,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Juan Carlos Mora </v>
       </c>
       <c r="E23" t="str">
-        <f>MID(B23,FIND("(",B23,1)+1,FIND(")",B23,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Costa Rica)</v>
       </c>
       <c r="F23" t="str">
-        <f>MID(E23,1,FIND(")",E23,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Costa Rica</v>
       </c>
       <c r="G23">
@@ -4234,15 +4634,15 @@
         <v>50</v>
       </c>
       <c r="D24" t="str">
-        <f>MID(B24,1,FIND("(",B24,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>Joe Fletcher </v>
       </c>
       <c r="E24" t="str">
-        <f>MID(B24,FIND("(",B24,1)+1,FIND(")",B24,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Canada)</v>
       </c>
       <c r="F24" t="str">
-        <f>MID(E24,1,FIND(")",E24,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Canada</v>
       </c>
       <c r="G24">
@@ -4255,15 +4655,15 @@
         <v>51</v>
       </c>
       <c r="D25" t="str">
-        <f>MID(B25,1,FIND("(",B25,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Frank Anderson </v>
       </c>
       <c r="E25" t="str">
-        <f>MID(B25,FIND("(",B25,1)+1,FIND(")",B25,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>United States)</v>
       </c>
       <c r="F25" t="str">
-        <f>MID(E25,1,FIND(")",E25,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>United States</v>
       </c>
       <c r="G25">
@@ -4278,15 +4678,15 @@
         <v>53</v>
       </c>
       <c r="D26" t="str">
-        <f>MID(B26,1,FIND("(",B26,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Corey Rockwell </v>
       </c>
       <c r="E26" t="str">
-        <f>MID(B26,FIND("(",B26,1)+1,FIND(")",B26,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>United States)</v>
       </c>
       <c r="F26" t="str">
-        <f>MID(E26,1,FIND(")",E26,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>United States</v>
       </c>
       <c r="G26">
@@ -4299,15 +4699,15 @@
         <v>47</v>
       </c>
       <c r="D27" t="str">
-        <f>MID(B27,1,FIND("(",B27,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Juan Zumba </v>
       </c>
       <c r="E27" t="str">
-        <f>MID(B27,FIND("(",B27,1)+1,FIND(")",B27,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>El Salvador)</v>
       </c>
       <c r="F27" t="str">
-        <f>MID(E27,1,FIND(")",E27,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>El Salvador</v>
       </c>
       <c r="G27">
@@ -4322,15 +4722,15 @@
         <v>55</v>
       </c>
       <c r="D28" t="str">
-        <f>MID(B28,1,FIND("(",B28,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Marvin Torrentera </v>
       </c>
       <c r="E28" t="str">
-        <f>MID(B28,FIND("(",B28,1)+1,FIND(")",B28,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Mexico)</v>
       </c>
       <c r="F28" t="str">
-        <f>MID(E28,1,FIND(")",E28,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Mexico</v>
       </c>
       <c r="G28">
@@ -4343,15 +4743,15 @@
         <v>56</v>
       </c>
       <c r="D29" t="str">
-        <f>MID(B29,1,FIND("(",B29,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Miguel Hernández </v>
       </c>
       <c r="E29" t="str">
-        <f>MID(B29,FIND("(",B29,1)+1,FIND(")",B29,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Mexico)</v>
       </c>
       <c r="F29" t="str">
-        <f>MID(E29,1,FIND(")",E29,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Mexico</v>
       </c>
       <c r="G29">
@@ -4364,15 +4764,15 @@
       </c>
       <c r="B30" s="6"/>
       <c r="D30" t="e">
-        <f>MID(B30,1,FIND("(",B30,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E30" t="e">
-        <f>MID(B30,FIND("(",B30,1)+1,FIND(")",B30,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F30" t="e">
-        <f>MID(E30,1,FIND(")",E30,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -4384,15 +4784,15 @@
         <v>59</v>
       </c>
       <c r="D31" t="str">
-        <f>MID(B31,1,FIND("(",B31,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Gabriel Victoria </v>
       </c>
       <c r="E31" t="str">
-        <f>MID(B31,FIND("(",B31,1)+1,FIND(")",B31,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Panama)</v>
       </c>
       <c r="F31" t="str">
-        <f>MID(E31,1,FIND(")",E31,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Panama</v>
       </c>
       <c r="G31">
@@ -4407,15 +4807,15 @@
         <v>61</v>
       </c>
       <c r="D32" t="str">
-        <f>MID(B32,1,FIND("(",B32,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Carlos Astroza </v>
       </c>
       <c r="E32" t="str">
-        <f>MID(B32,FIND("(",B32,1)+1,FIND(")",B32,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Chile)</v>
       </c>
       <c r="F32" t="str">
-        <f>MID(E32,1,FIND(")",E32,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Chile</v>
       </c>
       <c r="G32">
@@ -4428,15 +4828,15 @@
         <v>62</v>
       </c>
       <c r="D33" t="str">
-        <f>MID(B33,1,FIND("(",B33,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Christian Schiemann </v>
       </c>
       <c r="E33" t="str">
-        <f>MID(B33,FIND("(",B33,1)+1,FIND(")",B33,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Chile)</v>
       </c>
       <c r="F33" t="str">
-        <f>MID(E33,1,FIND(")",E33,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Chile</v>
       </c>
       <c r="G33">
@@ -4451,15 +4851,15 @@
         <v>64</v>
       </c>
       <c r="D34" t="str">
-        <f>MID(B34,1,FIND("(",B34,1)-1)</f>
+        <f t="shared" ref="D34:D66" si="3">MID(B34,1,FIND("(",B34,1)-1)</f>
         <v xml:space="preserve">Eduardo Cardozo </v>
       </c>
       <c r="E34" t="str">
-        <f>MID(B34,FIND("(",B34,1)+1,FIND(")",B34,1)-1)</f>
+        <f t="shared" ref="E34:E66" si="4">MID(B34,FIND("(",B34,1)+1,FIND(")",B34,1)-1)</f>
         <v>Paraguay)</v>
       </c>
       <c r="F34" t="str">
-        <f>MID(E34,1,FIND(")",E34,1)-1)</f>
+        <f t="shared" ref="F34:F65" si="5">MID(E34,1,FIND(")",E34,1)-1)</f>
         <v>Paraguay</v>
       </c>
       <c r="G34">
@@ -4472,15 +4872,15 @@
         <v>65</v>
       </c>
       <c r="D35" t="str">
-        <f>MID(B35,1,FIND("(",B35,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Juan Zorrilla </v>
       </c>
       <c r="E35" t="str">
-        <f>MID(B35,FIND("(",B35,1)+1,FIND(")",B35,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Paraguay)</v>
       </c>
       <c r="F35" t="str">
-        <f>MID(E35,1,FIND(")",E35,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Paraguay</v>
       </c>
       <c r="G35">
@@ -4495,15 +4895,15 @@
         <v>67</v>
       </c>
       <c r="D36" t="str">
-        <f>MID(B36,1,FIND("(",B36,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Nicolás Taran </v>
       </c>
       <c r="E36" t="str">
-        <f>MID(B36,FIND("(",B36,1)+1,FIND(")",B36,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Uruguay)</v>
       </c>
       <c r="F36" t="str">
-        <f>MID(E36,1,FIND(")",E36,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Uruguay</v>
       </c>
       <c r="G36">
@@ -4516,15 +4916,15 @@
         <v>68</v>
       </c>
       <c r="D37" t="str">
-        <f>MID(B37,1,FIND("(",B37,1)-1)</f>
+        <f t="shared" si="3"/>
         <v>Mauricio Espinosa </v>
       </c>
       <c r="E37" t="str">
-        <f>MID(B37,FIND("(",B37,1)+1,FIND(")",B37,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Uruguay)</v>
       </c>
       <c r="F37" t="str">
-        <f>MID(E37,1,FIND(")",E37,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Uruguay</v>
       </c>
       <c r="G37">
@@ -4539,15 +4939,15 @@
         <v>70</v>
       </c>
       <c r="D38" t="str">
-        <f>MID(B38,1,FIND("(",B38,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Hernán Maidana </v>
       </c>
       <c r="E38" t="str">
-        <f>MID(B38,FIND("(",B38,1)+1,FIND(")",B38,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Argentina)</v>
       </c>
       <c r="F38" t="str">
-        <f>MID(E38,1,FIND(")",E38,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Argentina</v>
       </c>
       <c r="G38">
@@ -4560,15 +4960,15 @@
         <v>71</v>
       </c>
       <c r="D39" t="str">
-        <f>MID(B39,1,FIND("(",B39,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Juan Pablo Belatti </v>
       </c>
       <c r="E39" t="str">
-        <f>MID(B39,FIND("(",B39,1)+1,FIND(")",B39,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Argentina)</v>
       </c>
       <c r="F39" t="str">
-        <f>MID(E39,1,FIND(")",E39,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Argentina</v>
       </c>
       <c r="G39">
@@ -4583,15 +4983,15 @@
         <v>73</v>
       </c>
       <c r="D40" t="str">
-        <f>MID(B40,1,FIND("(",B40,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Emerson de Carvalho </v>
       </c>
       <c r="E40" t="str">
-        <f>MID(B40,FIND("(",B40,1)+1,FIND(")",B40,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Brazil)</v>
       </c>
       <c r="F40" t="str">
-        <f>MID(E40,1,FIND(")",E40,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Brazil</v>
       </c>
       <c r="G40">
@@ -4604,15 +5004,15 @@
         <v>74</v>
       </c>
       <c r="D41" t="str">
-        <f>MID(B41,1,FIND("(",B41,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Marcelo Van Gasse </v>
       </c>
       <c r="E41" t="str">
-        <f>MID(B41,FIND("(",B41,1)+1,FIND(")",B41,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Brazil)</v>
       </c>
       <c r="F41" t="str">
-        <f>MID(E41,1,FIND(")",E41,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Brazil</v>
       </c>
       <c r="G41">
@@ -4627,15 +5027,15 @@
         <v>76</v>
       </c>
       <c r="D42" t="str">
-        <f>MID(B42,1,FIND("(",B42,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Alexander Guzmán </v>
       </c>
       <c r="E42" t="str">
-        <f>MID(B42,FIND("(",B42,1)+1,FIND(")",B42,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Colombia)</v>
       </c>
       <c r="F42" t="str">
-        <f>MID(E42,1,FIND(")",E42,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Colombia</v>
       </c>
       <c r="G42">
@@ -4648,15 +5048,15 @@
         <v>77</v>
       </c>
       <c r="D43" t="str">
-        <f>MID(B43,1,FIND("(",B43,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Cristian de la Cruz </v>
       </c>
       <c r="E43" t="str">
-        <f>MID(B43,FIND("(",B43,1)+1,FIND(")",B43,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Colombia)</v>
       </c>
       <c r="F43" t="str">
-        <f>MID(E43,1,FIND(")",E43,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Colombia</v>
       </c>
       <c r="G43">
@@ -4671,15 +5071,15 @@
         <v>79</v>
       </c>
       <c r="D44" t="str">
-        <f>MID(B44,1,FIND("(",B44,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Simon Lount </v>
       </c>
       <c r="E44" t="str">
-        <f>MID(B44,FIND("(",B44,1)+1,FIND(")",B44,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>New Zealand)</v>
       </c>
       <c r="F44" t="str">
-        <f>MID(E44,1,FIND(")",E44,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>New Zealand</v>
       </c>
       <c r="G44">
@@ -4692,15 +5092,15 @@
         <v>80</v>
       </c>
       <c r="D45" t="str">
-        <f>MID(B45,1,FIND("(",B45,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Tevita Makasini </v>
       </c>
       <c r="E45" t="str">
-        <f>MID(B45,FIND("(",B45,1)+1,FIND(")",B45,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Tonga)</v>
       </c>
       <c r="F45" t="str">
-        <f>MID(E45,1,FIND(")",E45,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Tonga</v>
       </c>
       <c r="G45">
@@ -4715,15 +5115,15 @@
         <v>82</v>
       </c>
       <c r="D46" t="str">
-        <f>MID(B46,1,FIND("(",B46,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Bertrand Brial </v>
       </c>
       <c r="E46" t="str">
-        <f>MID(B46,FIND("(",B46,1)+1,FIND(")",B46,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>New Caledonia)</v>
       </c>
       <c r="F46" t="str">
-        <f>MID(E46,1,FIND(")",E46,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>New Caledonia</v>
       </c>
       <c r="G46">
@@ -4738,15 +5138,15 @@
         <v>84</v>
       </c>
       <c r="D47" t="str">
-        <f>MID(B47,1,FIND("(",B47,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Mark Borsch </v>
       </c>
       <c r="E47" t="str">
-        <f>MID(B47,FIND("(",B47,1)+1,FIND(")",B47,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Germany)</v>
       </c>
       <c r="F47" t="str">
-        <f>MID(E47,1,FIND(")",E47,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Germany</v>
       </c>
       <c r="G47">
@@ -4759,15 +5159,15 @@
         <v>85</v>
       </c>
       <c r="D48" t="str">
-        <f>MID(B48,1,FIND("(",B48,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Stefan Lupp </v>
       </c>
       <c r="E48" t="str">
-        <f>MID(B48,FIND("(",B48,1)+1,FIND(")",B48,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Germany)</v>
       </c>
       <c r="F48" t="str">
-        <f>MID(E48,1,FIND(")",E48,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Germany</v>
       </c>
       <c r="G48">
@@ -4782,15 +5182,15 @@
         <v>87</v>
       </c>
       <c r="D49" t="str">
-        <f>MID(B49,1,FIND("(",B49,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Bahattin Duran </v>
       </c>
       <c r="E49" t="str">
-        <f>MID(B49,FIND("(",B49,1)+1,FIND(")",B49,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Turkey)</v>
       </c>
       <c r="F49" t="str">
-        <f>MID(E49,1,FIND(")",E49,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Turkey</v>
       </c>
       <c r="G49">
@@ -4803,15 +5203,15 @@
         <v>88</v>
       </c>
       <c r="D50" t="str">
-        <f>MID(B50,1,FIND("(",B50,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Tarık Ongun </v>
       </c>
       <c r="E50" t="str">
-        <f>MID(B50,FIND("(",B50,1)+1,FIND(")",B50,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Turkey)</v>
       </c>
       <c r="F50" t="str">
-        <f>MID(E50,1,FIND(")",E50,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Turkey</v>
       </c>
       <c r="G50">
@@ -4826,15 +5226,15 @@
         <v>90</v>
       </c>
       <c r="D51" t="str">
-        <f>MID(B51,1,FIND("(",B51,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Anton Averianov </v>
       </c>
       <c r="E51" t="str">
-        <f>MID(B51,FIND("(",B51,1)+1,FIND(")",B51,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Russia)</v>
       </c>
       <c r="F51" t="str">
-        <f>MID(E51,1,FIND(")",E51,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Russia</v>
       </c>
       <c r="G51">
@@ -4847,15 +5247,15 @@
         <v>91</v>
       </c>
       <c r="D52" t="str">
-        <f>MID(B52,1,FIND("(",B52,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Tikhon Kalugin </v>
       </c>
       <c r="E52" t="str">
-        <f>MID(B52,FIND("(",B52,1)+1,FIND(")",B52,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Russia)</v>
       </c>
       <c r="F52" t="str">
-        <f>MID(E52,1,FIND(")",E52,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Russia</v>
       </c>
       <c r="G52">
@@ -4870,15 +5270,15 @@
         <v>93</v>
       </c>
       <c r="D53" t="str">
-        <f>MID(B53,1,FIND("(",B53,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Sander van Roekel </v>
       </c>
       <c r="E53" t="str">
-        <f>MID(B53,FIND("(",B53,1)+1,FIND(")",B53,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Netherlands)</v>
       </c>
       <c r="F53" t="str">
-        <f>MID(E53,1,FIND(")",E53,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Netherlands</v>
       </c>
       <c r="G53">
@@ -4891,15 +5291,15 @@
         <v>94</v>
       </c>
       <c r="D54" t="str">
-        <f>MID(B54,1,FIND("(",B54,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Erwin Zeinstra </v>
       </c>
       <c r="E54" t="str">
-        <f>MID(B54,FIND("(",B54,1)+1,FIND(")",B54,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Netherlands)</v>
       </c>
       <c r="F54" t="str">
-        <f>MID(E54,1,FIND(")",E54,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Netherlands</v>
       </c>
       <c r="G54">
@@ -4914,15 +5314,15 @@
         <v>96</v>
       </c>
       <c r="D55" t="str">
-        <f>MID(B55,1,FIND("(",B55,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Paweł Sokolnicki </v>
       </c>
       <c r="E55" t="str">
-        <f>MID(B55,FIND("(",B55,1)+1,FIND(")",B55,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Poland)</v>
       </c>
       <c r="F55" t="str">
-        <f>MID(E55,1,FIND(")",E55,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Poland</v>
       </c>
       <c r="G55">
@@ -4935,15 +5335,15 @@
         <v>97</v>
       </c>
       <c r="D56" t="str">
-        <f>MID(B56,1,FIND("(",B56,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Tomasz Listkiewicz </v>
       </c>
       <c r="E56" t="str">
-        <f>MID(B56,FIND("(",B56,1)+1,FIND(")",B56,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Poland)</v>
       </c>
       <c r="F56" t="str">
-        <f>MID(E56,1,FIND(")",E56,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Poland</v>
       </c>
       <c r="G56">
@@ -4958,15 +5358,15 @@
         <v>99</v>
       </c>
       <c r="D57" t="str">
-        <f>MID(B57,1,FIND("(",B57,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Pau Cebrián Devís </v>
       </c>
       <c r="E57" t="str">
-        <f>MID(B57,FIND("(",B57,1)+1,FIND(")",B57,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Spain)</v>
       </c>
       <c r="F57" t="str">
-        <f>MID(E57,1,FIND(")",E57,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Spain</v>
       </c>
       <c r="G57">
@@ -4979,15 +5379,15 @@
         <v>100</v>
       </c>
       <c r="D58" t="str">
-        <f>MID(B58,1,FIND("(",B58,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Roberto Díaz Pérez </v>
       </c>
       <c r="E58" t="str">
-        <f>MID(B58,FIND("(",B58,1)+1,FIND(")",B58,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Spain)</v>
       </c>
       <c r="F58" t="str">
-        <f>MID(E58,1,FIND(")",E58,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Spain</v>
       </c>
       <c r="G58">
@@ -5002,15 +5402,15 @@
         <v>102</v>
       </c>
       <c r="D59" t="str">
-        <f>MID(B59,1,FIND("(",B59,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Milovan Ristić </v>
       </c>
       <c r="E59" t="str">
-        <f>MID(B59,FIND("(",B59,1)+1,FIND(")",B59,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Serbia)</v>
       </c>
       <c r="F59" t="str">
-        <f>MID(E59,1,FIND(")",E59,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Serbia</v>
       </c>
       <c r="G59">
@@ -5023,15 +5423,15 @@
         <v>103</v>
       </c>
       <c r="D60" t="str">
-        <f>MID(B60,1,FIND("(",B60,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Dalibor Đurđević </v>
       </c>
       <c r="E60" t="str">
-        <f>MID(B60,FIND("(",B60,1)+1,FIND(")",B60,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Serbia)</v>
       </c>
       <c r="F60" t="str">
-        <f>MID(E60,1,FIND(")",E60,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Serbia</v>
       </c>
       <c r="G60">
@@ -5046,15 +5446,15 @@
         <v>105</v>
       </c>
       <c r="D61" t="str">
-        <f>MID(B61,1,FIND("(",B61,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Elenito Di Liberatore </v>
       </c>
       <c r="E61" t="str">
-        <f>MID(B61,FIND("(",B61,1)+1,FIND(")",B61,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Italy)</v>
       </c>
       <c r="F61" t="str">
-        <f>MID(E61,1,FIND(")",E61,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Italy</v>
       </c>
       <c r="G61">
@@ -5067,15 +5467,15 @@
         <v>106</v>
       </c>
       <c r="D62" t="str">
-        <f>MID(B62,1,FIND("(",B62,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Mauro Tonolini </v>
       </c>
       <c r="E62" t="str">
-        <f>MID(B62,FIND("(",B62,1)+1,FIND(")",B62,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Italy)</v>
       </c>
       <c r="F62" t="str">
-        <f>MID(E62,1,FIND(")",E62,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Italy</v>
       </c>
       <c r="G62">
@@ -5090,15 +5490,15 @@
         <v>108</v>
       </c>
       <c r="D63" t="str">
-        <f>MID(B63,1,FIND("(",B63,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Jure Praprotnik </v>
       </c>
       <c r="E63" t="str">
-        <f>MID(B63,FIND("(",B63,1)+1,FIND(")",B63,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Slovenia)</v>
       </c>
       <c r="F63" t="str">
-        <f>MID(E63,1,FIND(")",E63,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Slovenia</v>
       </c>
       <c r="G63">
@@ -5111,15 +5511,15 @@
         <v>109</v>
       </c>
       <c r="D64" t="str">
-        <f>MID(B64,1,FIND("(",B64,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Robert Vukan </v>
       </c>
       <c r="E64" t="str">
-        <f>MID(B64,FIND("(",B64,1)+1,FIND(")",B64,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Slovenia)</v>
       </c>
       <c r="F64" t="str">
-        <f>MID(E64,1,FIND(")",E64,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Slovenia</v>
       </c>
       <c r="G64">
@@ -5134,15 +5534,15 @@
         <v>111</v>
       </c>
       <c r="D65" t="str">
-        <f>MID(B65,1,FIND("(",B65,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Cyril Gringore </v>
       </c>
       <c r="E65" t="str">
-        <f>MID(B65,FIND("(",B65,1)+1,FIND(")",B65,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>France)</v>
       </c>
       <c r="F65" t="str">
-        <f>MID(E65,1,FIND(")",E65,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>France</v>
       </c>
       <c r="G65">
@@ -5155,15 +5555,15 @@
         <v>112</v>
       </c>
       <c r="D66" t="str">
-        <f>MID(B66,1,FIND("(",B66,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Nicolas Danos </v>
       </c>
       <c r="E66" t="str">
-        <f>MID(B66,FIND("(",B66,1)+1,FIND(")",B66,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>France)</v>
       </c>
       <c r="F66" t="str">
-        <f>MID(E66,1,FIND(")",E66,1)-1)</f>
+        <f t="shared" ref="F66" si="6">MID(E66,1,FIND(")",E66,1)-1)</f>
         <v>France</v>
       </c>
       <c r="G66">
@@ -5240,7 +5640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543059C4-CC67-465E-9ED5-2B4895D1D335}">
   <dimension ref="A1:G66"/>
   <sheetViews>
@@ -5282,15 +5682,15 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="str">
-        <f>MID(B2,1,FIND("(",B2,1)-1)</f>
+        <f t="shared" ref="D2:D33" si="0">MID(B2,1,FIND("(",B2,1)-1)</f>
         <v xml:space="preserve">Reza Sokhandan </v>
       </c>
       <c r="E2" s="10" t="str">
-        <f>MID(B2,FIND("(",B2,1)+1,FIND(")",B2,1)-1)</f>
+        <f t="shared" ref="E2:E33" si="1">MID(B2,FIND("(",B2,1)+1,FIND(")",B2,1)-1)</f>
         <v>Iran)</v>
       </c>
       <c r="F2" s="10" t="str">
-        <f>MID(E2,1,FIND(")",E2,1)-1)</f>
+        <f t="shared" ref="F2:F33" si="2">MID(E2,1,FIND(")",E2,1)-1)</f>
         <v>Iran</v>
       </c>
       <c r="G2" s="10">
@@ -5306,15 +5706,15 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="str">
-        <f>MID(B3,1,FIND("(",B3,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Nicolás Taran </v>
       </c>
       <c r="E3" s="10" t="str">
-        <f>MID(B3,FIND("(",B3,1)+1,FIND(")",B3,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Uruguay)</v>
       </c>
       <c r="F3" s="10" t="str">
-        <f>MID(E3,1,FIND(")",E3,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Uruguay</v>
       </c>
       <c r="G3" s="10">
@@ -5330,15 +5730,15 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="str">
-        <f>MID(B4,1,FIND("(",B4,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Pau Cebrián Devís </v>
       </c>
       <c r="E4" s="11" t="str">
-        <f>MID(B4,FIND("(",B4,1)+1,FIND(")",B4,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Spain)</v>
       </c>
       <c r="F4" s="11" t="str">
-        <f>MID(E4,1,FIND(")",E4,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Spain</v>
       </c>
       <c r="G4" s="11">
@@ -5354,15 +5754,15 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="str">
-        <f>MID(B5,1,FIND("(",B5,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Jean Claude Birumushahu </v>
       </c>
       <c r="E5" s="11" t="str">
-        <f>MID(B5,FIND("(",B5,1)+1,FIND(")",B5,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Burundi)</v>
       </c>
       <c r="F5" s="11" t="str">
-        <f>MID(E5,1,FIND(")",E5,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Burundi</v>
       </c>
       <c r="G5" s="11">
@@ -5376,15 +5776,15 @@
       <c r="B6" s="25"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="e">
-        <f>MID(B6,1,FIND("(",B6,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E6" s="11" t="e">
-        <f>MID(B6,FIND("(",B6,1)+1,FIND(")",B6,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F6" s="11" t="e">
-        <f>MID(E6,1,FIND(")",E6,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="G6" s="11"/>
@@ -5398,15 +5798,15 @@
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="str">
-        <f>MID(B7,1,FIND("(",B7,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Sander van Roekel </v>
       </c>
       <c r="E7" s="11" t="str">
-        <f>MID(B7,FIND("(",B7,1)+1,FIND(")",B7,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Netherlands)</v>
       </c>
       <c r="F7" s="11" t="str">
-        <f>MID(E7,1,FIND(")",E7,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Netherlands</v>
       </c>
       <c r="G7" s="11">
@@ -5422,15 +5822,15 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="str">
-        <f>MID(B8,1,FIND("(",B8,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Marvin Torrentera </v>
       </c>
       <c r="E8" s="10" t="str">
-        <f>MID(B8,FIND("(",B8,1)+1,FIND(")",B8,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Mexico)</v>
       </c>
       <c r="F8" s="10" t="str">
-        <f>MID(E8,1,FIND(")",E8,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Mexico</v>
       </c>
       <c r="G8" s="10">
@@ -5446,15 +5846,15 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="str">
-        <f>MID(B9,1,FIND("(",B9,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Cyril Gringore </v>
       </c>
       <c r="E9" s="11" t="str">
-        <f>MID(B9,FIND("(",B9,1)+1,FIND(")",B9,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>France)</v>
       </c>
       <c r="F9" s="11" t="str">
-        <f>MID(E9,1,FIND(")",E9,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>France</v>
       </c>
       <c r="G9" s="11">
@@ -5470,15 +5870,15 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="str">
-        <f>MID(B10,1,FIND("(",B10,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bahattin Duran </v>
       </c>
       <c r="E10" s="11" t="str">
-        <f>MID(B10,FIND("(",B10,1)+1,FIND(")",B10,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Turkey)</v>
       </c>
       <c r="F10" s="11" t="str">
-        <f>MID(E10,1,FIND(")",E10,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Turkey</v>
       </c>
       <c r="G10" s="11">
@@ -5494,15 +5894,15 @@
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="str">
-        <f>MID(B11,1,FIND("(",B11,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Jure Praprotnik </v>
       </c>
       <c r="E11" s="11" t="str">
-        <f>MID(B11,FIND("(",B11,1)+1,FIND(")",B11,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Slovenia)</v>
       </c>
       <c r="F11" s="11" t="str">
-        <f>MID(E11,1,FIND(")",E11,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Slovenia</v>
       </c>
       <c r="G11" s="11">
@@ -5518,15 +5918,15 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="str">
-        <f>MID(B12,1,FIND("(",B12,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Eduardo Cardozo </v>
       </c>
       <c r="E12" s="10" t="str">
-        <f>MID(B12,FIND("(",B12,1)+1,FIND(")",B12,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Paraguay)</v>
       </c>
       <c r="F12" s="10" t="str">
-        <f>MID(E12,1,FIND(")",E12,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Paraguay</v>
       </c>
       <c r="G12" s="10">
@@ -5542,15 +5942,15 @@
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11" t="str">
-        <f>MID(B13,1,FIND("(",B13,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Mark Borsch </v>
       </c>
       <c r="E13" s="11" t="str">
-        <f>MID(B13,FIND("(",B13,1)+1,FIND(")",B13,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Germany)</v>
       </c>
       <c r="F13" s="11" t="str">
-        <f>MID(E13,1,FIND(")",E13,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Germany</v>
       </c>
       <c r="G13" s="11">
@@ -5566,15 +5966,15 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="str">
-        <f>MID(B14,1,FIND("(",B14,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Redouane Achik </v>
       </c>
       <c r="E14" s="11" t="str">
-        <f>MID(B14,FIND("(",B14,1)+1,FIND(")",B14,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Morocco)</v>
       </c>
       <c r="F14" s="11" t="str">
-        <f>MID(E14,1,FIND(")",E14,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Morocco</v>
       </c>
       <c r="G14" s="11">
@@ -5590,15 +5990,15 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="str">
-        <f>MID(B15,1,FIND("(",B15,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Elenito Di Liberatore </v>
       </c>
       <c r="E15" s="11" t="str">
-        <f>MID(B15,FIND("(",B15,1)+1,FIND(")",B15,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Italy)</v>
       </c>
       <c r="F15" s="11" t="str">
-        <f>MID(E15,1,FIND(")",E15,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Italy</v>
       </c>
       <c r="G15" s="11">
@@ -5614,15 +6014,15 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="str">
-        <f>MID(B16,1,FIND("(",B16,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Corey Rockwell </v>
       </c>
       <c r="E16" s="10" t="str">
-        <f>MID(B16,FIND("(",B16,1)+1,FIND(")",B16,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>United States)</v>
       </c>
       <c r="F16" s="10" t="str">
-        <f>MID(E16,1,FIND(")",E16,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>United States</v>
       </c>
       <c r="G16" s="10">
@@ -5638,15 +6038,15 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="str">
-        <f>MID(B17,1,FIND("(",B17,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Jerson Dos Santos </v>
       </c>
       <c r="E17" s="11" t="str">
-        <f>MID(B17,FIND("(",B17,1)+1,FIND(")",B17,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Angola)</v>
       </c>
       <c r="F17" s="11" t="str">
-        <f>MID(E17,1,FIND(")",E17,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Angola</v>
       </c>
       <c r="G17" s="11">
@@ -5662,15 +6062,15 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="str">
-        <f>MID(B18,1,FIND("(",B18,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Juan Zumba </v>
       </c>
       <c r="E18" s="10" t="str">
-        <f>MID(B18,FIND("(",B18,1)+1,FIND(")",B18,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>El Salvador)</v>
       </c>
       <c r="F18" s="10" t="str">
-        <f>MID(E18,1,FIND(")",E18,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>El Salvador</v>
       </c>
       <c r="G18" s="10">
@@ -5686,15 +6086,15 @@
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11" t="str">
-        <f>MID(B19,1,FIND("(",B19,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Gabriel Victoria </v>
       </c>
       <c r="E19" s="11" t="str">
-        <f>MID(B19,FIND("(",B19,1)+1,FIND(")",B19,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Panama)</v>
       </c>
       <c r="F19" s="11" t="str">
-        <f>MID(E19,1,FIND(")",E19,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Panama</v>
       </c>
       <c r="G19" s="11">
@@ -5710,15 +6110,15 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="str">
-        <f>MID(B20,1,FIND("(",B20,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Carlos Astroza </v>
       </c>
       <c r="E20" s="10" t="str">
-        <f>MID(B20,FIND("(",B20,1)+1,FIND(")",B20,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Chile)</v>
       </c>
       <c r="F20" s="10" t="str">
-        <f>MID(E20,1,FIND(")",E20,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Chile</v>
       </c>
       <c r="G20" s="10">
@@ -5734,15 +6134,15 @@
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11" t="str">
-        <f>MID(B21,1,FIND("(",B21,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Djibril Camara </v>
       </c>
       <c r="E21" s="11" t="str">
-        <f>MID(B21,FIND("(",B21,1)+1,FIND(")",B21,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Senegal)</v>
       </c>
       <c r="F21" s="11" t="str">
-        <f>MID(E21,1,FIND(")",E21,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Senegal</v>
       </c>
       <c r="G21" s="11">
@@ -5758,15 +6158,15 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="str">
-        <f>MID(B22,1,FIND("(",B22,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>Joe Fletcher </v>
       </c>
       <c r="E22" s="10" t="str">
-        <f>MID(B22,FIND("(",B22,1)+1,FIND(")",B22,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Canada)</v>
       </c>
       <c r="F22" s="10" t="str">
-        <f>MID(E22,1,FIND(")",E22,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Canada</v>
       </c>
       <c r="G22" s="10">
@@ -5782,15 +6182,15 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="str">
-        <f>MID(B23,1,FIND("(",B23,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Simon Lount </v>
       </c>
       <c r="E23" s="10" t="str">
-        <f>MID(B23,FIND("(",B23,1)+1,FIND(")",B23,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>New Zealand)</v>
       </c>
       <c r="F23" s="10" t="str">
-        <f>MID(E23,1,FIND(")",E23,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>New Zealand</v>
       </c>
       <c r="G23" s="10">
@@ -5806,15 +6206,15 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="str">
-        <f>MID(B24,1,FIND("(",B24,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Anouar Hmila </v>
       </c>
       <c r="E24" s="10" t="str">
-        <f>MID(B24,FIND("(",B24,1)+1,FIND(")",B24,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Tunisia)</v>
       </c>
       <c r="F24" s="10" t="str">
-        <f>MID(E24,1,FIND(")",E24,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Tunisia</v>
       </c>
       <c r="G24" s="10">
@@ -5830,15 +6230,15 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="str">
-        <f>MID(B25,1,FIND("(",B25,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Milovan Ristić </v>
       </c>
       <c r="E25" s="11" t="str">
-        <f>MID(B25,FIND("(",B25,1)+1,FIND(")",B25,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Serbia)</v>
       </c>
       <c r="F25" s="11" t="str">
-        <f>MID(E25,1,FIND(")",E25,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Serbia</v>
       </c>
       <c r="G25" s="11">
@@ -5854,15 +6254,15 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="str">
-        <f>MID(B26,1,FIND("(",B26,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Mohamed Al Hammadi </v>
       </c>
       <c r="E26" s="10" t="str">
-        <f>MID(B26,FIND("(",B26,1)+1,FIND(")",B26,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>United Arab Emirates)</v>
       </c>
       <c r="F26" s="10" t="str">
-        <f>MID(E26,1,FIND(")",E26,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="G26" s="10">
@@ -5878,15 +6278,15 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="str">
-        <f>MID(B27,1,FIND("(",B27,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Yaser Tulefat </v>
       </c>
       <c r="E27" s="10" t="str">
-        <f>MID(B27,FIND("(",B27,1)+1,FIND(")",B27,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Bahrain)</v>
       </c>
       <c r="F27" s="10" t="str">
-        <f>MID(E27,1,FIND(")",E27,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Bahrain</v>
       </c>
       <c r="G27" s="10">
@@ -5902,15 +6302,15 @@
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10" t="str">
-        <f>MID(B28,1,FIND("(",B28,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Hernán Maidana </v>
       </c>
       <c r="E28" s="10" t="str">
-        <f>MID(B28,FIND("(",B28,1)+1,FIND(")",B28,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Argentina)</v>
       </c>
       <c r="F28" s="10" t="str">
-        <f>MID(E28,1,FIND(")",E28,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Argentina</v>
       </c>
       <c r="G28" s="10">
@@ -5926,15 +6326,15 @@
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="str">
-        <f>MID(B29,1,FIND("(",B29,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bertrand Brial </v>
       </c>
       <c r="E29" s="10" t="str">
-        <f>MID(B29,FIND("(",B29,1)+1,FIND(")",B29,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>New Caledonia)</v>
       </c>
       <c r="F29" s="10" t="str">
-        <f>MID(E29,1,FIND(")",E29,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>New Caledonia</v>
       </c>
       <c r="G29" s="10">
@@ -5950,15 +6350,15 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="str">
-        <f>MID(B30,1,FIND("(",B30,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>Abdukhamidullo Rasulov </v>
       </c>
       <c r="E30" s="10" t="str">
-        <f>MID(B30,FIND("(",B30,1)+1,FIND(")",B30,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Uzbekistan)</v>
       </c>
       <c r="F30" s="10" t="str">
-        <f>MID(E30,1,FIND(")",E30,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Uzbekistan</v>
       </c>
       <c r="G30" s="10">
@@ -5972,15 +6372,15 @@
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="e">
-        <f>MID(B31,1,FIND("(",B31,1)-1)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="E31" s="10" t="e">
-        <f>MID(B31,FIND("(",B31,1)+1,FIND(")",B31,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="F31" s="10" t="e">
-        <f>MID(E31,1,FIND(")",E31,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="G31" s="10"/>
@@ -5994,15 +6394,15 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="str">
-        <f>MID(B32,1,FIND("(",B32,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Toru Sagara </v>
       </c>
       <c r="E32" s="10" t="str">
-        <f>MID(B32,FIND("(",B32,1)+1,FIND(")",B32,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Japan)</v>
       </c>
       <c r="F32" s="10" t="str">
-        <f>MID(E32,1,FIND(")",E32,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Japan</v>
       </c>
       <c r="G32" s="10">
@@ -6018,15 +6418,15 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="str">
-        <f>MID(B33,1,FIND("(",B33,1)-1)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Emerson de Carvalho </v>
       </c>
       <c r="E33" s="10" t="str">
-        <f>MID(B33,FIND("(",B33,1)+1,FIND(")",B33,1)-1)</f>
+        <f t="shared" si="1"/>
         <v>Brazil)</v>
       </c>
       <c r="F33" s="10" t="str">
-        <f>MID(E33,1,FIND(")",E33,1)-1)</f>
+        <f t="shared" si="2"/>
         <v>Brazil</v>
       </c>
       <c r="G33" s="10">
@@ -6042,15 +6442,15 @@
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11" t="str">
-        <f>MID(B34,1,FIND("(",B34,1)-1)</f>
+        <f t="shared" ref="D34:D66" si="3">MID(B34,1,FIND("(",B34,1)-1)</f>
         <v xml:space="preserve">Anton Averianov </v>
       </c>
       <c r="E34" s="11" t="str">
-        <f>MID(B34,FIND("(",B34,1)+1,FIND(")",B34,1)-1)</f>
+        <f t="shared" ref="E34:E66" si="4">MID(B34,FIND("(",B34,1)+1,FIND(")",B34,1)-1)</f>
         <v>Russia)</v>
       </c>
       <c r="F34" s="11" t="str">
-        <f>MID(E34,1,FIND(")",E34,1)-1)</f>
+        <f t="shared" ref="F34:F65" si="5">MID(E34,1,FIND(")",E34,1)-1)</f>
         <v>Russia</v>
       </c>
       <c r="G34" s="11">
@@ -6066,15 +6466,15 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11" t="str">
-        <f>MID(B35,1,FIND("(",B35,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Paweł Sokolnicki </v>
       </c>
       <c r="E35" s="11" t="str">
-        <f>MID(B35,FIND("(",B35,1)+1,FIND(")",B35,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Poland)</v>
       </c>
       <c r="F35" s="11" t="str">
-        <f>MID(E35,1,FIND(")",E35,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Poland</v>
       </c>
       <c r="G35" s="11">
@@ -6090,15 +6490,15 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="str">
-        <f>MID(B36,1,FIND("(",B36,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Alexander Guzmán </v>
       </c>
       <c r="E36" s="10" t="str">
-        <f>MID(B36,FIND("(",B36,1)+1,FIND(")",B36,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Colombia)</v>
       </c>
       <c r="F36" s="10" t="str">
-        <f>MID(E36,1,FIND(")",E36,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Colombia</v>
       </c>
       <c r="G36" s="10">
@@ -6112,15 +6512,15 @@
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11" t="str">
-        <f>MID(B37,1,FIND("(",B37,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Mohammadreza Mansouri </v>
       </c>
       <c r="E37" s="11" t="str">
-        <f>MID(B37,FIND("(",B37,1)+1,FIND(")",B37,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Iran)</v>
       </c>
       <c r="F37" s="11" t="str">
-        <f>MID(E37,1,FIND(")",E37,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Iran</v>
       </c>
       <c r="G37" s="11">
@@ -6134,15 +6534,15 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11" t="str">
-        <f>MID(B38,1,FIND("(",B38,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Jakhongir Saidov </v>
       </c>
       <c r="E38" s="11" t="str">
-        <f>MID(B38,FIND("(",B38,1)+1,FIND(")",B38,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Uzbekistan)</v>
       </c>
       <c r="F38" s="11" t="str">
-        <f>MID(E38,1,FIND(")",E38,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Uzbekistan</v>
       </c>
       <c r="G38" s="11">
@@ -6156,15 +6556,15 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11" t="str">
-        <f>MID(B39,1,FIND("(",B39,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Hasan Al Mahri </v>
       </c>
       <c r="E39" s="11" t="str">
-        <f>MID(B39,FIND("(",B39,1)+1,FIND(")",B39,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>United Arab Emirates)</v>
       </c>
       <c r="F39" s="11" t="str">
-        <f>MID(E39,1,FIND(")",E39,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="G39" s="11">
@@ -6178,15 +6578,15 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="str">
-        <f>MID(B40,1,FIND("(",B40,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Hiroshi Yamauchi </v>
       </c>
       <c r="E40" s="11" t="str">
-        <f>MID(B40,FIND("(",B40,1)+1,FIND(")",B40,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Japan)</v>
       </c>
       <c r="F40" s="11" t="str">
-        <f>MID(E40,1,FIND(")",E40,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Japan</v>
       </c>
       <c r="G40" s="11">
@@ -6200,15 +6600,15 @@
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="str">
-        <f>MID(B41,1,FIND("(",B41,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Taleb Al Maari </v>
       </c>
       <c r="E41" s="11" t="str">
-        <f>MID(B41,FIND("(",B41,1)+1,FIND(")",B41,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Qatar)</v>
       </c>
       <c r="F41" s="11" t="str">
-        <f>MID(E41,1,FIND(")",E41,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Qatar</v>
       </c>
       <c r="G41" s="11">
@@ -6222,15 +6622,15 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10" t="str">
-        <f>MID(B42,1,FIND("(",B42,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">El Hadji Samba </v>
       </c>
       <c r="E42" s="10" t="str">
-        <f>MID(B42,FIND("(",B42,1)+1,FIND(")",B42,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Senegal)</v>
       </c>
       <c r="F42" s="10" t="str">
-        <f>MID(E42,1,FIND(")",E42,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Senegal</v>
       </c>
       <c r="G42" s="10">
@@ -6244,15 +6644,15 @@
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10" t="str">
-        <f>MID(B43,1,FIND("(",B43,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Abdelhak Etchiali </v>
       </c>
       <c r="E43" s="10" t="str">
-        <f>MID(B43,FIND("(",B43,1)+1,FIND(")",B43,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Algeria)</v>
       </c>
       <c r="F43" s="10" t="str">
-        <f>MID(E43,1,FIND(")",E43,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Algeria</v>
       </c>
       <c r="G43" s="10">
@@ -6266,15 +6666,15 @@
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="str">
-        <f>MID(B44,1,FIND("(",B44,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Waleed Ahmed </v>
       </c>
       <c r="E44" s="10" t="str">
-        <f>MID(B44,FIND("(",B44,1)+1,FIND(")",B44,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Sudan)</v>
       </c>
       <c r="F44" s="10" t="str">
-        <f>MID(E44,1,FIND(")",E44,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Sudan</v>
       </c>
       <c r="G44" s="10">
@@ -6288,15 +6688,15 @@
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10" t="str">
-        <f>MID(B45,1,FIND("(",B45,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Zakhele Siwela </v>
       </c>
       <c r="E45" s="10" t="str">
-        <f>MID(B45,FIND("(",B45,1)+1,FIND(")",B45,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>South Africa)</v>
       </c>
       <c r="F45" s="10" t="str">
-        <f>MID(E45,1,FIND(")",E45,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>South Africa</v>
       </c>
       <c r="G45" s="10">
@@ -6310,15 +6710,15 @@
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11" t="str">
-        <f>MID(B46,1,FIND("(",B46,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Juan Carlos Mora </v>
       </c>
       <c r="E46" s="11" t="str">
-        <f>MID(B46,FIND("(",B46,1)+1,FIND(")",B46,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Costa Rica)</v>
       </c>
       <c r="F46" s="11" t="str">
-        <f>MID(E46,1,FIND(")",E46,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Costa Rica</v>
       </c>
       <c r="G46" s="11">
@@ -6332,15 +6732,15 @@
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11" t="str">
-        <f>MID(B47,1,FIND("(",B47,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Frank Anderson </v>
       </c>
       <c r="E47" s="11" t="str">
-        <f>MID(B47,FIND("(",B47,1)+1,FIND(")",B47,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>United States)</v>
       </c>
       <c r="F47" s="11" t="str">
-        <f>MID(E47,1,FIND(")",E47,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>United States</v>
       </c>
       <c r="G47" s="11">
@@ -6354,15 +6754,15 @@
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11" t="str">
-        <f>MID(B48,1,FIND("(",B48,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Juan Zumba </v>
       </c>
       <c r="E48" s="11" t="str">
-        <f>MID(B48,FIND("(",B48,1)+1,FIND(")",B48,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>El Salvador)</v>
       </c>
       <c r="F48" s="11" t="str">
-        <f>MID(E48,1,FIND(")",E48,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>El Salvador</v>
       </c>
       <c r="G48" s="11">
@@ -6376,15 +6776,15 @@
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11" t="str">
-        <f>MID(B49,1,FIND("(",B49,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Miguel Hernández </v>
       </c>
       <c r="E49" s="11" t="str">
-        <f>MID(B49,FIND("(",B49,1)+1,FIND(")",B49,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Mexico)</v>
       </c>
       <c r="F49" s="11" t="str">
-        <f>MID(E49,1,FIND(")",E49,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Mexico</v>
       </c>
       <c r="G49" s="11">
@@ -6398,15 +6798,15 @@
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11" t="str">
-        <f>MID(B50,1,FIND("(",B50,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Christian Schiemann </v>
       </c>
       <c r="E50" s="11" t="str">
-        <f>MID(B50,FIND("(",B50,1)+1,FIND(")",B50,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Chile)</v>
       </c>
       <c r="F50" s="11" t="str">
-        <f>MID(E50,1,FIND(")",E50,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Chile</v>
       </c>
       <c r="G50" s="11">
@@ -6420,15 +6820,15 @@
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11" t="str">
-        <f>MID(B51,1,FIND("(",B51,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Juan Zorrilla </v>
       </c>
       <c r="E51" s="11" t="str">
-        <f>MID(B51,FIND("(",B51,1)+1,FIND(")",B51,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Paraguay)</v>
       </c>
       <c r="F51" s="11" t="str">
-        <f>MID(E51,1,FIND(")",E51,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Paraguay</v>
       </c>
       <c r="G51" s="11">
@@ -6442,15 +6842,15 @@
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="str">
-        <f>MID(B52,1,FIND("(",B52,1)-1)</f>
+        <f t="shared" si="3"/>
         <v>Mauricio Espinosa </v>
       </c>
       <c r="E52" s="11" t="str">
-        <f>MID(B52,FIND("(",B52,1)+1,FIND(")",B52,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Uruguay)</v>
       </c>
       <c r="F52" s="11" t="str">
-        <f>MID(E52,1,FIND(")",E52,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Uruguay</v>
       </c>
       <c r="G52" s="11">
@@ -6464,15 +6864,15 @@
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11" t="str">
-        <f>MID(B53,1,FIND("(",B53,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Juan Pablo Belatti </v>
       </c>
       <c r="E53" s="11" t="str">
-        <f>MID(B53,FIND("(",B53,1)+1,FIND(")",B53,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Argentina)</v>
       </c>
       <c r="F53" s="11" t="str">
-        <f>MID(E53,1,FIND(")",E53,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Argentina</v>
       </c>
       <c r="G53" s="11">
@@ -6486,15 +6886,15 @@
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="str">
-        <f>MID(B54,1,FIND("(",B54,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Marcelo Van Gasse </v>
       </c>
       <c r="E54" s="11" t="str">
-        <f>MID(B54,FIND("(",B54,1)+1,FIND(")",B54,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Brazil)</v>
       </c>
       <c r="F54" s="11" t="str">
-        <f>MID(E54,1,FIND(")",E54,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Brazil</v>
       </c>
       <c r="G54" s="11">
@@ -6508,15 +6908,15 @@
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11" t="str">
-        <f>MID(B55,1,FIND("(",B55,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Cristian de la Cruz </v>
       </c>
       <c r="E55" s="11" t="str">
-        <f>MID(B55,FIND("(",B55,1)+1,FIND(")",B55,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Colombia)</v>
       </c>
       <c r="F55" s="11" t="str">
-        <f>MID(E55,1,FIND(")",E55,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Colombia</v>
       </c>
       <c r="G55" s="11">
@@ -6530,15 +6930,15 @@
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11" t="str">
-        <f>MID(B56,1,FIND("(",B56,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Tevita Makasini </v>
       </c>
       <c r="E56" s="11" t="str">
-        <f>MID(B56,FIND("(",B56,1)+1,FIND(")",B56,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Tonga)</v>
       </c>
       <c r="F56" s="11" t="str">
-        <f>MID(E56,1,FIND(")",E56,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Tonga</v>
       </c>
       <c r="G56" s="11">
@@ -6552,15 +6952,15 @@
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="str">
-        <f>MID(B57,1,FIND("(",B57,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Stefan Lupp </v>
       </c>
       <c r="E57" s="10" t="str">
-        <f>MID(B57,FIND("(",B57,1)+1,FIND(")",B57,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Germany)</v>
       </c>
       <c r="F57" s="10" t="str">
-        <f>MID(E57,1,FIND(")",E57,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Germany</v>
       </c>
       <c r="G57" s="10">
@@ -6574,15 +6974,15 @@
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10" t="str">
-        <f>MID(B58,1,FIND("(",B58,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Tarık Ongun </v>
       </c>
       <c r="E58" s="10" t="str">
-        <f>MID(B58,FIND("(",B58,1)+1,FIND(")",B58,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Turkey)</v>
       </c>
       <c r="F58" s="10" t="str">
-        <f>MID(E58,1,FIND(")",E58,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Turkey</v>
       </c>
       <c r="G58" s="10">
@@ -6596,15 +6996,15 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10" t="str">
-        <f>MID(B59,1,FIND("(",B59,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Tikhon Kalugin </v>
       </c>
       <c r="E59" s="10" t="str">
-        <f>MID(B59,FIND("(",B59,1)+1,FIND(")",B59,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Russia)</v>
       </c>
       <c r="F59" s="10" t="str">
-        <f>MID(E59,1,FIND(")",E59,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Russia</v>
       </c>
       <c r="G59" s="10">
@@ -6618,15 +7018,15 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10" t="str">
-        <f>MID(B60,1,FIND("(",B60,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Erwin Zeinstra </v>
       </c>
       <c r="E60" s="10" t="str">
-        <f>MID(B60,FIND("(",B60,1)+1,FIND(")",B60,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Netherlands)</v>
       </c>
       <c r="F60" s="10" t="str">
-        <f>MID(E60,1,FIND(")",E60,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Netherlands</v>
       </c>
       <c r="G60" s="10">
@@ -6640,15 +7040,15 @@
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10" t="str">
-        <f>MID(B61,1,FIND("(",B61,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Tomasz Listkiewicz </v>
       </c>
       <c r="E61" s="10" t="str">
-        <f>MID(B61,FIND("(",B61,1)+1,FIND(")",B61,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Poland)</v>
       </c>
       <c r="F61" s="10" t="str">
-        <f>MID(E61,1,FIND(")",E61,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Poland</v>
       </c>
       <c r="G61" s="10">
@@ -6662,15 +7062,15 @@
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10" t="str">
-        <f>MID(B62,1,FIND("(",B62,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Roberto Díaz Pérez </v>
       </c>
       <c r="E62" s="10" t="str">
-        <f>MID(B62,FIND("(",B62,1)+1,FIND(")",B62,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Spain)</v>
       </c>
       <c r="F62" s="10" t="str">
-        <f>MID(E62,1,FIND(")",E62,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Spain</v>
       </c>
       <c r="G62" s="10">
@@ -6684,15 +7084,15 @@
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10" t="str">
-        <f>MID(B63,1,FIND("(",B63,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Dalibor Đurđević </v>
       </c>
       <c r="E63" s="10" t="str">
-        <f>MID(B63,FIND("(",B63,1)+1,FIND(")",B63,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Serbia)</v>
       </c>
       <c r="F63" s="10" t="str">
-        <f>MID(E63,1,FIND(")",E63,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Serbia</v>
       </c>
       <c r="G63" s="10">
@@ -6706,15 +7106,15 @@
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="str">
-        <f>MID(B64,1,FIND("(",B64,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Mauro Tonolini </v>
       </c>
       <c r="E64" s="10" t="str">
-        <f>MID(B64,FIND("(",B64,1)+1,FIND(")",B64,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Italy)</v>
       </c>
       <c r="F64" s="10" t="str">
-        <f>MID(E64,1,FIND(")",E64,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Italy</v>
       </c>
       <c r="G64" s="10">
@@ -6728,15 +7128,15 @@
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10" t="str">
-        <f>MID(B65,1,FIND("(",B65,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Robert Vukan </v>
       </c>
       <c r="E65" s="10" t="str">
-        <f>MID(B65,FIND("(",B65,1)+1,FIND(")",B65,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>Slovenia)</v>
       </c>
       <c r="F65" s="10" t="str">
-        <f>MID(E65,1,FIND(")",E65,1)-1)</f>
+        <f t="shared" si="5"/>
         <v>Slovenia</v>
       </c>
       <c r="G65" s="10">
@@ -6750,15 +7150,15 @@
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10" t="str">
-        <f>MID(B66,1,FIND("(",B66,1)-1)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Nicolas Danos </v>
       </c>
       <c r="E66" s="10" t="str">
-        <f>MID(B66,FIND("(",B66,1)+1,FIND(")",B66,1)-1)</f>
+        <f t="shared" si="4"/>
         <v>France)</v>
       </c>
       <c r="F66" s="10" t="str">
-        <f>MID(E66,1,FIND(")",E66,1)-1)</f>
+        <f t="shared" ref="F66" si="6">MID(E66,1,FIND(")",E66,1)-1)</f>
         <v>France</v>
       </c>
       <c r="G66" s="10">
